--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8696.35377311802</v>
+        <v>8938.002730536986</v>
       </c>
       <c r="AB2" t="n">
-        <v>11898.73488843214</v>
+        <v>12229.36965277239</v>
       </c>
       <c r="AC2" t="n">
-        <v>10763.13633065903</v>
+        <v>11062.21577713944</v>
       </c>
       <c r="AD2" t="n">
-        <v>8696353.773118021</v>
+        <v>8938002.730536986</v>
       </c>
       <c r="AE2" t="n">
-        <v>11898734.88843214</v>
+        <v>12229369.65277239</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.556737843680448e-07</v>
+        <v>8.010951208376513e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.7</v>
       </c>
       <c r="AH2" t="n">
-        <v>10763136.33065903</v>
+        <v>11062215.77713944</v>
       </c>
     </row>
     <row r="3">
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2898.573264079746</v>
+        <v>3027.903188811406</v>
       </c>
       <c r="AB3" t="n">
-        <v>3965.95581594151</v>
+        <v>4142.910724592973</v>
       </c>
       <c r="AC3" t="n">
-        <v>3587.450559121849</v>
+        <v>3747.517139649384</v>
       </c>
       <c r="AD3" t="n">
-        <v>2898573.264079746</v>
+        <v>3027903.188811406</v>
       </c>
       <c r="AE3" t="n">
-        <v>3965955.81594151</v>
+        <v>4142910.724592973</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045991345213673e-06</v>
+        <v>1.507968499975311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.05833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3587450.559121849</v>
+        <v>3747517.139649384</v>
       </c>
     </row>
     <row r="4">
@@ -3314,28 +3314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2192.274141738727</v>
+        <v>2304.422582225441</v>
       </c>
       <c r="AB4" t="n">
-        <v>2999.566197036336</v>
+        <v>3153.012640950275</v>
       </c>
       <c r="AC4" t="n">
-        <v>2713.291809108674</v>
+        <v>2852.093539778896</v>
       </c>
       <c r="AD4" t="n">
-        <v>2192274.141738727</v>
+        <v>2304422.582225441</v>
       </c>
       <c r="AE4" t="n">
-        <v>2999566.197036336</v>
+        <v>3153012.640950275</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.227033919747867e-06</v>
+        <v>1.768971137139796e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.77083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2713291.809108674</v>
+        <v>2852093.539778896</v>
       </c>
     </row>
     <row r="5">
@@ -3420,28 +3420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1899.027454979365</v>
+        <v>2002.542527670595</v>
       </c>
       <c r="AB5" t="n">
-        <v>2598.333143081243</v>
+        <v>2739.967032300086</v>
       </c>
       <c r="AC5" t="n">
-        <v>2350.351874689039</v>
+        <v>2478.468424305247</v>
       </c>
       <c r="AD5" t="n">
-        <v>1899027.454979365</v>
+        <v>2002542.527670595</v>
       </c>
       <c r="AE5" t="n">
-        <v>2598333.143081243</v>
+        <v>2739967.032300085</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.323171757473921e-06</v>
+        <v>1.907569636649382e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.97083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2350351.874689038</v>
+        <v>2478468.424305247</v>
       </c>
     </row>
     <row r="6">
@@ -3526,28 +3526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1719.124209956791</v>
+        <v>1822.55394179345</v>
       </c>
       <c r="AB6" t="n">
-        <v>2352.181586470336</v>
+        <v>2493.698708566981</v>
       </c>
       <c r="AC6" t="n">
-        <v>2127.692677165198</v>
+        <v>2255.703603749467</v>
       </c>
       <c r="AD6" t="n">
-        <v>1719124.209956791</v>
+        <v>1822553.94179345</v>
       </c>
       <c r="AE6" t="n">
-        <v>2352181.586470336</v>
+        <v>2493698.708566981</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.384880870308703e-06</v>
+        <v>1.996533468656294e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.94583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2127692.677165198</v>
+        <v>2255703.603749467</v>
       </c>
     </row>
     <row r="7">
@@ -3632,28 +3632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1600.792559520568</v>
+        <v>1695.589013070294</v>
       </c>
       <c r="AB7" t="n">
-        <v>2190.275001919518</v>
+        <v>2319.979691790625</v>
       </c>
       <c r="AC7" t="n">
-        <v>1981.238229806591</v>
+        <v>2098.564086118075</v>
       </c>
       <c r="AD7" t="n">
-        <v>1600792.559520568</v>
+        <v>1695589.013070294</v>
       </c>
       <c r="AE7" t="n">
-        <v>2190275.001919518</v>
+        <v>2319979.691790625</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.425582625582708e-06</v>
+        <v>2.055211740831066e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.31875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1981238.229806591</v>
+        <v>2098564.086118075</v>
       </c>
     </row>
     <row r="8">
@@ -3738,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1511.020762964984</v>
+        <v>1605.902467860731</v>
       </c>
       <c r="AB8" t="n">
-        <v>2067.445269420019</v>
+        <v>2197.266603943774</v>
       </c>
       <c r="AC8" t="n">
-        <v>1870.131194584231</v>
+        <v>1987.562563146427</v>
       </c>
       <c r="AD8" t="n">
-        <v>1511020.762964984</v>
+        <v>1605902.467860731</v>
       </c>
       <c r="AE8" t="n">
-        <v>2067445.269420019</v>
+        <v>2197266.603943774</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.451404169251162e-06</v>
+        <v>2.092437741458071e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.93958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1870131.194584231</v>
+        <v>1987562.563146427</v>
       </c>
     </row>
     <row r="9">
@@ -3844,28 +3844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1490.156390552637</v>
+        <v>1585.038095448384</v>
       </c>
       <c r="AB9" t="n">
-        <v>2038.897714614298</v>
+        <v>2168.719049138054</v>
       </c>
       <c r="AC9" t="n">
-        <v>1844.308178342424</v>
+        <v>1961.73954690462</v>
       </c>
       <c r="AD9" t="n">
-        <v>1490156.390552637</v>
+        <v>1585038.095448384</v>
       </c>
       <c r="AE9" t="n">
-        <v>2038897.714614298</v>
+        <v>2168719.049138054</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.458114852916411e-06</v>
+        <v>2.102112295293338e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.84375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1844308.178342424</v>
+        <v>1961739.54690462</v>
       </c>
     </row>
     <row r="10">
@@ -3950,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1496.520647587366</v>
+        <v>1591.402352483113</v>
       </c>
       <c r="AB10" t="n">
-        <v>2047.605571860419</v>
+        <v>2177.426906384174</v>
       </c>
       <c r="AC10" t="n">
-        <v>1852.184969914529</v>
+        <v>1969.616338476725</v>
       </c>
       <c r="AD10" t="n">
-        <v>1496520.647587366</v>
+        <v>1591402.352483113</v>
       </c>
       <c r="AE10" t="n">
-        <v>2047605.571860419</v>
+        <v>2177426.906384174</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.457968968488905e-06</v>
+        <v>2.101901978905615e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.84583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1852184.969914529</v>
+        <v>1969616.338476725</v>
       </c>
     </row>
   </sheetData>
@@ -4247,28 +4247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5222.295138822336</v>
+        <v>5415.63985802369</v>
       </c>
       <c r="AB2" t="n">
-        <v>7145.374600338443</v>
+        <v>7409.917374916762</v>
       </c>
       <c r="AC2" t="n">
-        <v>6463.430077078109</v>
+        <v>6702.72526053878</v>
       </c>
       <c r="AD2" t="n">
-        <v>5222295.138822336</v>
+        <v>5415639.85802369</v>
       </c>
       <c r="AE2" t="n">
-        <v>7145374.600338443</v>
+        <v>7409917.374916762</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.319396861723171e-07</v>
+        <v>1.071532165751719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.95833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>6463430.07707811</v>
+        <v>6702725.26053878</v>
       </c>
     </row>
     <row r="3">
@@ -4353,28 +4353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2245.224903854006</v>
+        <v>2362.983492769476</v>
       </c>
       <c r="AB3" t="n">
-        <v>3072.015765785221</v>
+        <v>3233.138262281666</v>
       </c>
       <c r="AC3" t="n">
-        <v>2778.826892699771</v>
+        <v>2924.572084267433</v>
       </c>
       <c r="AD3" t="n">
-        <v>2245224.903854006</v>
+        <v>2362983.492769476</v>
       </c>
       <c r="AE3" t="n">
-        <v>3072015.765785221</v>
+        <v>3233138.262281666</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.184233137607046e-06</v>
+        <v>1.733672763846131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.55</v>
       </c>
       <c r="AH3" t="n">
-        <v>2778826.892699771</v>
+        <v>2924572.084267433</v>
       </c>
     </row>
     <row r="4">
@@ -4459,28 +4459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1759.670508461742</v>
+        <v>1860.508998921186</v>
       </c>
       <c r="AB4" t="n">
-        <v>2407.658820861254</v>
+        <v>2545.630492188093</v>
       </c>
       <c r="AC4" t="n">
-        <v>2177.875242168634</v>
+        <v>2302.679090828496</v>
       </c>
       <c r="AD4" t="n">
-        <v>1759670.508461742</v>
+        <v>1860508.998921186</v>
       </c>
       <c r="AE4" t="n">
-        <v>2407658.820861254</v>
+        <v>2545630.492188093</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.349485499742858e-06</v>
+        <v>1.975596005392138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.29791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2177875.242168634</v>
+        <v>2302679.090828496</v>
       </c>
     </row>
     <row r="5">
@@ -4565,28 +4565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1530.355780201563</v>
+        <v>1631.194181152456</v>
       </c>
       <c r="AB5" t="n">
-        <v>2093.900293003865</v>
+        <v>2231.871841861155</v>
       </c>
       <c r="AC5" t="n">
-        <v>1894.061387847094</v>
+        <v>2018.865125725729</v>
       </c>
       <c r="AD5" t="n">
-        <v>1530355.780201563</v>
+        <v>1631194.181152456</v>
       </c>
       <c r="AE5" t="n">
-        <v>2093900.293003865</v>
+        <v>2231871.841861155</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.435205446494585e-06</v>
+        <v>2.10108678274203e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.90833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1894061.387847094</v>
+        <v>2018865.125725729</v>
       </c>
     </row>
     <row r="6">
@@ -4671,28 +4671,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1409.131260382901</v>
+        <v>1501.552327287342</v>
       </c>
       <c r="AB6" t="n">
-        <v>1928.035556939603</v>
+        <v>2054.490138007968</v>
       </c>
       <c r="AC6" t="n">
-        <v>1744.026549400186</v>
+        <v>1858.412482731505</v>
       </c>
       <c r="AD6" t="n">
-        <v>1409131.260382901</v>
+        <v>1501552.327287342</v>
       </c>
       <c r="AE6" t="n">
-        <v>1928035.556939603</v>
+        <v>2054490.138007968</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.481083727854664e-06</v>
+        <v>2.168250860760282e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.22916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1744026.549400186</v>
+        <v>1858412.482731505</v>
       </c>
     </row>
     <row r="7">
@@ -4777,28 +4777,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1384.66499498467</v>
+        <v>1468.839320043251</v>
       </c>
       <c r="AB7" t="n">
-        <v>1894.559733246292</v>
+        <v>2009.730758300579</v>
       </c>
       <c r="AC7" t="n">
-        <v>1713.745611336552</v>
+        <v>1817.924875403206</v>
       </c>
       <c r="AD7" t="n">
-        <v>1384664.99498467</v>
+        <v>1468839.320043251</v>
       </c>
       <c r="AE7" t="n">
-        <v>1894559.733246292</v>
+        <v>2009730.758300579</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.490893228803365e-06</v>
+        <v>2.182611601126027e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.08958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1713745.611336552</v>
+        <v>1817924.875403206</v>
       </c>
     </row>
     <row r="8">
@@ -4883,28 +4883,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1390.111911303132</v>
+        <v>1474.286236361713</v>
       </c>
       <c r="AB8" t="n">
-        <v>1902.0124444542</v>
+        <v>2017.183469508487</v>
       </c>
       <c r="AC8" t="n">
-        <v>1720.487046246723</v>
+        <v>1824.666310313377</v>
       </c>
       <c r="AD8" t="n">
-        <v>1390111.911303132</v>
+        <v>1474286.236361713</v>
       </c>
       <c r="AE8" t="n">
-        <v>1902012.444454201</v>
+        <v>2017183.469508487</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.490893228803365e-06</v>
+        <v>2.182611601126027e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.08958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1720487.046246723</v>
+        <v>1824666.310313377</v>
       </c>
     </row>
   </sheetData>
@@ -5180,28 +5180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1616.460660437273</v>
+        <v>1725.117361862059</v>
       </c>
       <c r="AB2" t="n">
-        <v>2211.71278882158</v>
+        <v>2360.381681306325</v>
       </c>
       <c r="AC2" t="n">
-        <v>2000.630024414843</v>
+        <v>2135.110166458945</v>
       </c>
       <c r="AD2" t="n">
-        <v>1616460.660437272</v>
+        <v>1725117.361862059</v>
       </c>
       <c r="AE2" t="n">
-        <v>2211712.78882158</v>
+        <v>2360381.681306325</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.30038171519931e-06</v>
+        <v>2.01185102331915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.97708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2000630.024414843</v>
+        <v>2135110.166458945</v>
       </c>
     </row>
     <row r="3">
@@ -5286,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1137.529441908631</v>
+        <v>1230.651565864938</v>
       </c>
       <c r="AB3" t="n">
-        <v>1556.41796667654</v>
+        <v>1683.831764931721</v>
       </c>
       <c r="AC3" t="n">
-        <v>1407.875620383266</v>
+        <v>1523.129224559362</v>
       </c>
       <c r="AD3" t="n">
-        <v>1137529.441908631</v>
+        <v>1230651.565864938</v>
       </c>
       <c r="AE3" t="n">
-        <v>1556417.96667654</v>
+        <v>1683831.764931721</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.539677547535261e-06</v>
+        <v>2.382071212925019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.78541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1407875.620383266</v>
+        <v>1523129.224559362</v>
       </c>
     </row>
     <row r="4">
@@ -5392,28 +5392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1142.570084907662</v>
+        <v>1235.692208863969</v>
       </c>
       <c r="AB4" t="n">
-        <v>1563.314796805289</v>
+        <v>1690.72859506047</v>
       </c>
       <c r="AC4" t="n">
-        <v>1414.114226724289</v>
+        <v>1529.367830900385</v>
       </c>
       <c r="AD4" t="n">
-        <v>1142570.084907662</v>
+        <v>1235692.208863969</v>
       </c>
       <c r="AE4" t="n">
-        <v>1563314.796805289</v>
+        <v>1690728.59506047</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.541529943140958e-06</v>
+        <v>2.384937097573621e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.75833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1414114.226724289</v>
+        <v>1529367.830900385</v>
       </c>
     </row>
   </sheetData>
@@ -5689,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2503.863999627778</v>
+        <v>2632.036855615099</v>
       </c>
       <c r="AB2" t="n">
-        <v>3425.897186974521</v>
+        <v>3601.26894312371</v>
       </c>
       <c r="AC2" t="n">
-        <v>3098.934367726444</v>
+        <v>3257.568889604553</v>
       </c>
       <c r="AD2" t="n">
-        <v>2503863.999627778</v>
+        <v>2632036.855615099</v>
       </c>
       <c r="AE2" t="n">
-        <v>3425897.186974521</v>
+        <v>3601268.943123709</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.067465523435792e-06</v>
+        <v>1.613254207085551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.44166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3098934.367726444</v>
+        <v>3257568.889604553</v>
       </c>
     </row>
     <row r="3">
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1402.149506142772</v>
+        <v>1498.236500083116</v>
       </c>
       <c r="AB3" t="n">
-        <v>1918.482812775001</v>
+        <v>2049.953276943172</v>
       </c>
       <c r="AC3" t="n">
-        <v>1735.385505731293</v>
+        <v>1854.30861331921</v>
       </c>
       <c r="AD3" t="n">
-        <v>1402149.506142772</v>
+        <v>1498236.500083115</v>
       </c>
       <c r="AE3" t="n">
-        <v>1918482.812775001</v>
+        <v>2049953.276943172</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.446700935776248e-06</v>
+        <v>2.186390398374321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>1735385.505731293</v>
+        <v>1854308.61331921</v>
       </c>
     </row>
     <row r="4">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1213.179601072173</v>
+        <v>1309.266505503965</v>
       </c>
       <c r="AB4" t="n">
-        <v>1659.925851893575</v>
+        <v>1791.396193592198</v>
       </c>
       <c r="AC4" t="n">
-        <v>1501.504858309416</v>
+        <v>1620.427855116107</v>
       </c>
       <c r="AD4" t="n">
-        <v>1213179.601072174</v>
+        <v>1309266.505503965</v>
       </c>
       <c r="AE4" t="n">
-        <v>1659925.851893575</v>
+        <v>1791396.193592198</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.534662930312309e-06</v>
+        <v>2.319326830168573e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.86875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1501504.858309417</v>
+        <v>1620427.855116107</v>
       </c>
     </row>
     <row r="5">
@@ -6007,28 +6007,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1215.333539000508</v>
+        <v>1311.420443432299</v>
       </c>
       <c r="AB5" t="n">
-        <v>1662.872964792157</v>
+        <v>1794.34330649078</v>
       </c>
       <c r="AC5" t="n">
-        <v>1504.170702889257</v>
+        <v>1623.093699695947</v>
       </c>
       <c r="AD5" t="n">
-        <v>1215333.539000508</v>
+        <v>1311420.443432299</v>
       </c>
       <c r="AE5" t="n">
-        <v>1662872.964792157</v>
+        <v>1794343.30649078</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.537562776286025e-06</v>
+        <v>2.323709349898053e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.82708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1504170.702889257</v>
+        <v>1623093.699695947</v>
       </c>
     </row>
   </sheetData>
@@ -6304,28 +6304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1156.896869880399</v>
+        <v>1255.076080308663</v>
       </c>
       <c r="AB2" t="n">
-        <v>1582.917336058132</v>
+        <v>1717.250463127153</v>
       </c>
       <c r="AC2" t="n">
-        <v>1431.845927143178</v>
+        <v>1553.35848910246</v>
       </c>
       <c r="AD2" t="n">
-        <v>1156896.869880399</v>
+        <v>1255076.080308662</v>
       </c>
       <c r="AE2" t="n">
-        <v>1582917.336058132</v>
+        <v>1717250.463127153</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.477880957191651e-06</v>
+        <v>2.33577310399733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1431845.927143178</v>
+        <v>1553358.48910246</v>
       </c>
     </row>
     <row r="3">
@@ -6410,28 +6410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1092.70506247709</v>
+        <v>1190.798932050781</v>
       </c>
       <c r="AB3" t="n">
-        <v>1495.087273226249</v>
+        <v>1629.303633173074</v>
       </c>
       <c r="AC3" t="n">
-        <v>1352.398242237703</v>
+        <v>1473.805181165046</v>
       </c>
       <c r="AD3" t="n">
-        <v>1092705.062477089</v>
+        <v>1190798.932050781</v>
       </c>
       <c r="AE3" t="n">
-        <v>1495087.273226249</v>
+        <v>1629303.633173074</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.520730760092474e-06</v>
+        <v>2.403496702870625e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.96041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1352398.242237702</v>
+        <v>1473805.181165046</v>
       </c>
     </row>
   </sheetData>
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5903.895870977074</v>
+        <v>6098.631479782609</v>
       </c>
       <c r="AB2" t="n">
-        <v>8077.970792174673</v>
+        <v>8344.41664327115</v>
       </c>
       <c r="AC2" t="n">
-        <v>7307.020597272429</v>
+        <v>7548.03723029935</v>
       </c>
       <c r="AD2" t="n">
-        <v>5903895.870977074</v>
+        <v>6098631.479782609</v>
       </c>
       <c r="AE2" t="n">
-        <v>8077970.792174673</v>
+        <v>8344416.64327115</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.855818344437231e-07</v>
+        <v>9.995003563602284e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.44791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>7307020.597272429</v>
+        <v>7548037.23029935</v>
       </c>
     </row>
     <row r="3">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2402.112987669484</v>
+        <v>2520.580952603057</v>
       </c>
       <c r="AB3" t="n">
-        <v>3286.676963475341</v>
+        <v>3448.770059535213</v>
       </c>
       <c r="AC3" t="n">
-        <v>2973.001126961221</v>
+        <v>3119.624285432222</v>
       </c>
       <c r="AD3" t="n">
-        <v>2402112.987669484</v>
+        <v>2520580.952603057</v>
       </c>
       <c r="AE3" t="n">
-        <v>3286676.963475341</v>
+        <v>3448770.059535213</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.147721421797804e-06</v>
+        <v>1.673247324325566e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.15</v>
       </c>
       <c r="AH3" t="n">
-        <v>2973001.126961221</v>
+        <v>3119624.285432222</v>
       </c>
     </row>
     <row r="4">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1866.179668247709</v>
+        <v>1967.869860076993</v>
       </c>
       <c r="AB4" t="n">
-        <v>2553.389352132916</v>
+        <v>2692.526358848382</v>
       </c>
       <c r="AC4" t="n">
-        <v>2309.697456069814</v>
+        <v>2435.55542214437</v>
       </c>
       <c r="AD4" t="n">
-        <v>1866179.668247709</v>
+        <v>1967869.860076993</v>
       </c>
       <c r="AE4" t="n">
-        <v>2553389.352132916</v>
+        <v>2692526.358848382</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.316424805142594e-06</v>
+        <v>1.919197673796408e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.66875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2309697.456069814</v>
+        <v>2435555.42214437</v>
       </c>
     </row>
     <row r="5">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1625.806321214187</v>
+        <v>1718.93707904501</v>
       </c>
       <c r="AB5" t="n">
-        <v>2224.49993419801</v>
+        <v>2351.925545701205</v>
       </c>
       <c r="AC5" t="n">
-        <v>2012.196782583418</v>
+        <v>2127.461072567716</v>
       </c>
       <c r="AD5" t="n">
-        <v>1625806.321214187</v>
+        <v>1718937.07904501</v>
       </c>
       <c r="AE5" t="n">
-        <v>2224499.93419801</v>
+        <v>2351925.545701204</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.407058005769316e-06</v>
+        <v>2.051330574309998e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.14375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2012196.782583418</v>
+        <v>2127461.072567716</v>
       </c>
     </row>
     <row r="6">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1462.112559357733</v>
+        <v>1555.157976333985</v>
       </c>
       <c r="AB6" t="n">
-        <v>2000.526907566916</v>
+        <v>2127.835751947912</v>
       </c>
       <c r="AC6" t="n">
-        <v>1809.599427265878</v>
+        <v>1924.758094218237</v>
       </c>
       <c r="AD6" t="n">
-        <v>1462112.559357733</v>
+        <v>1555157.976333985</v>
       </c>
       <c r="AE6" t="n">
-        <v>2000526.907566916</v>
+        <v>2127835.751947912</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.463142907147239e-06</v>
+        <v>2.133095983043655e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.29583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1809599.427265878</v>
+        <v>1924758.094218237</v>
       </c>
     </row>
     <row r="7">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1414.041635476166</v>
+        <v>1498.783551509121</v>
       </c>
       <c r="AB7" t="n">
-        <v>1934.754148772669</v>
+        <v>2050.701776838439</v>
       </c>
       <c r="AC7" t="n">
-        <v>1750.103928258308</v>
+        <v>1854.985677434998</v>
       </c>
       <c r="AD7" t="n">
-        <v>1414041.635476166</v>
+        <v>1498783.551509121</v>
       </c>
       <c r="AE7" t="n">
-        <v>1934754.148772669</v>
+        <v>2050701.776838439</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.480940515851166e-06</v>
+        <v>2.159042872748469e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.03958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1750103.928258308</v>
+        <v>1854985.677434998</v>
       </c>
     </row>
     <row r="8">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1416.347935628505</v>
+        <v>1501.089851661459</v>
       </c>
       <c r="AB8" t="n">
-        <v>1937.90973038788</v>
+        <v>2053.857358453649</v>
       </c>
       <c r="AC8" t="n">
-        <v>1752.958345593049</v>
+        <v>1857.84009476974</v>
       </c>
       <c r="AD8" t="n">
-        <v>1416347.935628504</v>
+        <v>1501089.851661459</v>
       </c>
       <c r="AE8" t="n">
-        <v>1937909.73038788</v>
+        <v>2053857.35845365</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.481688314536205e-06</v>
+        <v>2.160133078198252e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.02916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1752958.345593049</v>
+        <v>1857840.09476974</v>
       </c>
     </row>
   </sheetData>
@@ -7640,28 +7640,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1085.876063139466</v>
+        <v>1182.365176692443</v>
       </c>
       <c r="AB2" t="n">
-        <v>1485.743535058325</v>
+        <v>1617.764197020768</v>
       </c>
       <c r="AC2" t="n">
-        <v>1343.946257326506</v>
+        <v>1463.367052603416</v>
       </c>
       <c r="AD2" t="n">
-        <v>1085876.063139466</v>
+        <v>1182365.176692443</v>
       </c>
       <c r="AE2" t="n">
-        <v>1485743.535058325</v>
+        <v>1617764.197020768</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.484693567263757e-06</v>
+        <v>2.378827845827989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.11458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1343946.257326506</v>
+        <v>1463367.052603416</v>
       </c>
     </row>
     <row r="3">
@@ -7746,28 +7746,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1090.486905159104</v>
+        <v>1179.711338440181</v>
       </c>
       <c r="AB3" t="n">
-        <v>1492.052292525588</v>
+        <v>1614.133098444943</v>
       </c>
       <c r="AC3" t="n">
-        <v>1349.65291583549</v>
+        <v>1460.082500979389</v>
       </c>
       <c r="AD3" t="n">
-        <v>1090486.905159104</v>
+        <v>1179711.338440181</v>
       </c>
       <c r="AE3" t="n">
-        <v>1492052.292525588</v>
+        <v>1614133.098444943</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.489347217986947e-06</v>
+        <v>2.386284087418287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.0375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1349652.91583549</v>
+        <v>1460082.500979389</v>
       </c>
     </row>
   </sheetData>
@@ -8043,28 +8043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3638.400400126778</v>
+        <v>3794.746102889691</v>
       </c>
       <c r="AB2" t="n">
-        <v>4978.219942350822</v>
+        <v>5192.13903035666</v>
       </c>
       <c r="AC2" t="n">
-        <v>4503.105618028244</v>
+        <v>4696.608568512121</v>
       </c>
       <c r="AD2" t="n">
-        <v>3638400.400126778</v>
+        <v>3794746.102889691</v>
       </c>
       <c r="AE2" t="n">
-        <v>4978219.942350822</v>
+        <v>5192139.03035666</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.853579286358792e-07</v>
+        <v>1.314617697359626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.5875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4503105.618028244</v>
+        <v>4696608.56851212</v>
       </c>
     </row>
     <row r="3">
@@ -8149,28 +8149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1811.459743845824</v>
+        <v>1918.4061696769</v>
       </c>
       <c r="AB3" t="n">
-        <v>2478.519137493569</v>
+        <v>2624.847955458965</v>
       </c>
       <c r="AC3" t="n">
-        <v>2241.97274963464</v>
+        <v>2374.336150587205</v>
       </c>
       <c r="AD3" t="n">
-        <v>1811459.743845824</v>
+        <v>1918406.1696769</v>
       </c>
       <c r="AE3" t="n">
-        <v>2478519.137493569</v>
+        <v>2624847.955458965</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.303780511347356e-06</v>
+        <v>1.935909622824107e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2241972.74963464</v>
+        <v>2374336.150587205</v>
       </c>
     </row>
     <row r="4">
@@ -8255,28 +8255,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1437.754107731603</v>
+        <v>1528.234197427284</v>
       </c>
       <c r="AB4" t="n">
-        <v>1967.198599433002</v>
+        <v>2090.99744985447</v>
       </c>
       <c r="AC4" t="n">
-        <v>1779.451926083691</v>
+        <v>1891.435587973712</v>
       </c>
       <c r="AD4" t="n">
-        <v>1437754.107731603</v>
+        <v>1528234.197427284</v>
       </c>
       <c r="AE4" t="n">
-        <v>1967198.599433002</v>
+        <v>2090997.44985447</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.456937792644571e-06</v>
+        <v>2.163324170049121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.23541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1779451.92608369</v>
+        <v>1891435.587973712</v>
       </c>
     </row>
     <row r="5">
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1302.814415358966</v>
+        <v>1393.209164200075</v>
       </c>
       <c r="AB5" t="n">
-        <v>1782.568159209682</v>
+        <v>1906.250242508953</v>
       </c>
       <c r="AC5" t="n">
-        <v>1612.442355944834</v>
+        <v>1724.320394802916</v>
       </c>
       <c r="AD5" t="n">
-        <v>1302814.415358966</v>
+        <v>1393209.164200075</v>
       </c>
       <c r="AE5" t="n">
-        <v>1782568.159209682</v>
+        <v>1906250.242508953</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.512447589013206e-06</v>
+        <v>2.245747513561132e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.41666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1612442.355944834</v>
+        <v>1724320.394802916</v>
       </c>
     </row>
     <row r="6">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1299.557671526336</v>
+        <v>1389.952420367445</v>
       </c>
       <c r="AB6" t="n">
-        <v>1778.11213862048</v>
+        <v>1901.794221919751</v>
       </c>
       <c r="AC6" t="n">
-        <v>1608.411611706601</v>
+        <v>1720.289650564684</v>
       </c>
       <c r="AD6" t="n">
-        <v>1299557.671526336</v>
+        <v>1389952.420367445</v>
       </c>
       <c r="AE6" t="n">
-        <v>1778112.13862048</v>
+        <v>1901794.221919751</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.516179340029585e-06</v>
+        <v>2.251288578671182e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.36458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1608411.611706601</v>
+        <v>1720289.650564684</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4626.555083945543</v>
+        <v>4801.998371645552</v>
       </c>
       <c r="AB2" t="n">
-        <v>6330.256775059653</v>
+        <v>6570.306021302409</v>
       </c>
       <c r="AC2" t="n">
-        <v>5726.105953018905</v>
+        <v>5943.245236111477</v>
       </c>
       <c r="AD2" t="n">
-        <v>4626555.083945543</v>
+        <v>4801998.371645552</v>
       </c>
       <c r="AE2" t="n">
-        <v>6330256.775059653</v>
+        <v>6570306.021302409</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.807878823010116e-07</v>
+        <v>1.148103669334773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.64583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5726105.953018905</v>
+        <v>5943245.236111477</v>
       </c>
     </row>
     <row r="3">
@@ -8870,28 +8870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2093.688622440113</v>
+        <v>2210.537026434027</v>
       </c>
       <c r="AB3" t="n">
-        <v>2864.677140245647</v>
+        <v>3024.554281578056</v>
       </c>
       <c r="AC3" t="n">
-        <v>2591.27637458022</v>
+        <v>2735.895065932727</v>
       </c>
       <c r="AD3" t="n">
-        <v>2093688.622440113</v>
+        <v>2210537.026434027</v>
       </c>
       <c r="AE3" t="n">
-        <v>2864677.140245648</v>
+        <v>3024554.281578056</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.222294864331906e-06</v>
+        <v>1.797314290550807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.96666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2591276.37458022</v>
+        <v>2735895.065932727</v>
       </c>
     </row>
     <row r="4">
@@ -8976,28 +8976,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1650.354574903384</v>
+        <v>1750.571307508573</v>
       </c>
       <c r="AB4" t="n">
-        <v>2258.087937888089</v>
+        <v>2395.208892688714</v>
       </c>
       <c r="AC4" t="n">
-        <v>2042.579194342374</v>
+        <v>2166.613517667297</v>
       </c>
       <c r="AD4" t="n">
-        <v>1650354.574903384</v>
+        <v>1750571.307508573</v>
       </c>
       <c r="AE4" t="n">
-        <v>2258087.937888089</v>
+        <v>2395208.892688714</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.382413511024269e-06</v>
+        <v>2.032759550349997e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.95833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2042579.194342374</v>
+        <v>2166613.517667297</v>
       </c>
     </row>
     <row r="5">
@@ -9082,28 +9082,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1431.341730643042</v>
+        <v>1523.285297981155</v>
       </c>
       <c r="AB5" t="n">
-        <v>1958.424902206321</v>
+        <v>2084.226147302242</v>
       </c>
       <c r="AC5" t="n">
-        <v>1771.515578206362</v>
+        <v>1885.310529033485</v>
       </c>
       <c r="AD5" t="n">
-        <v>1431341.730643042</v>
+        <v>1523285.297981155</v>
       </c>
       <c r="AE5" t="n">
-        <v>1958424.902206321</v>
+        <v>2084226.147302242</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.467119474450486e-06</v>
+        <v>2.157314797208559e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.63333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1771515.578206362</v>
+        <v>1885310.529033485</v>
       </c>
     </row>
     <row r="6">
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1358.942921965384</v>
+        <v>1450.715897102906</v>
       </c>
       <c r="AB6" t="n">
-        <v>1859.365658163532</v>
+        <v>1984.933491484607</v>
       </c>
       <c r="AC6" t="n">
-        <v>1681.910409384496</v>
+        <v>1795.494224928968</v>
       </c>
       <c r="AD6" t="n">
-        <v>1358942.921965384</v>
+        <v>1450715.897102906</v>
       </c>
       <c r="AE6" t="n">
-        <v>1859365.658163532</v>
+        <v>1984933.491484607</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.497132198901862e-06</v>
+        <v>2.201446782156647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="AH6" t="n">
-        <v>1681910.409384496</v>
+        <v>1795494.224928968</v>
       </c>
     </row>
     <row r="7">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1356.591229762358</v>
+        <v>1448.36420489988</v>
       </c>
       <c r="AB7" t="n">
-        <v>1856.147969142015</v>
+        <v>1981.715802463089</v>
       </c>
       <c r="AC7" t="n">
-        <v>1678.999812087137</v>
+        <v>1792.583627631608</v>
       </c>
       <c r="AD7" t="n">
-        <v>1356591.229762358</v>
+        <v>1448364.20489988</v>
       </c>
       <c r="AE7" t="n">
-        <v>1856147.969142015</v>
+        <v>1981715.802463089</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.499874478293358e-06</v>
+        <v>2.205479146263579e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.1625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1678999.812087137</v>
+        <v>1792583.627631608</v>
       </c>
     </row>
   </sheetData>
@@ -9591,28 +9591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7613.70289102243</v>
+        <v>7836.664174238398</v>
       </c>
       <c r="AB2" t="n">
-        <v>10417.40418836291</v>
+        <v>10722.46965241661</v>
       </c>
       <c r="AC2" t="n">
-        <v>9423.181753543764</v>
+        <v>9699.13219787024</v>
       </c>
       <c r="AD2" t="n">
-        <v>7613702.89102243</v>
+        <v>7836664.174238398</v>
       </c>
       <c r="AE2" t="n">
-        <v>10417404.18836291</v>
+        <v>10722469.65241661</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.974667212771204e-07</v>
+        <v>8.643984259912829e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>9423181.753543764</v>
+        <v>9699132.19787024</v>
       </c>
     </row>
     <row r="3">
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2727.61587214483</v>
+        <v>2856.089867214603</v>
       </c>
       <c r="AB3" t="n">
-        <v>3732.044370188306</v>
+        <v>3907.828158115425</v>
       </c>
       <c r="AC3" t="n">
-        <v>3375.863293454564</v>
+        <v>3534.870523376008</v>
       </c>
       <c r="AD3" t="n">
-        <v>2727615.872144829</v>
+        <v>2856089.867214603</v>
       </c>
       <c r="AE3" t="n">
-        <v>3732044.370188306</v>
+        <v>3907828.158115425</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.077734088171306e-06</v>
+        <v>1.559236048262395e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.425</v>
       </c>
       <c r="AH3" t="n">
-        <v>3375863.293454565</v>
+        <v>3534870.523376008</v>
       </c>
     </row>
     <row r="4">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2087.438032674092</v>
+        <v>2190.336723828022</v>
       </c>
       <c r="AB4" t="n">
-        <v>2856.124807571218</v>
+        <v>2996.915336377892</v>
       </c>
       <c r="AC4" t="n">
-        <v>2583.540264532965</v>
+        <v>2710.893942871077</v>
       </c>
       <c r="AD4" t="n">
-        <v>2087438.032674092</v>
+        <v>2190336.723828021</v>
       </c>
       <c r="AE4" t="n">
-        <v>2856124.807571218</v>
+        <v>2996915.336377892</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.254930100757801e-06</v>
+        <v>1.815598367563281e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.4125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2583540.264532965</v>
+        <v>2710893.942871077</v>
       </c>
     </row>
     <row r="5">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1809.723139698119</v>
+        <v>1912.621741343497</v>
       </c>
       <c r="AB5" t="n">
-        <v>2476.143039085111</v>
+        <v>2616.933445422236</v>
       </c>
       <c r="AC5" t="n">
-        <v>2239.82342272341</v>
+        <v>2367.176990280296</v>
       </c>
       <c r="AD5" t="n">
-        <v>1809723.139698119</v>
+        <v>1912621.741343498</v>
       </c>
       <c r="AE5" t="n">
-        <v>2476143.039085111</v>
+        <v>2616933.445422236</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.349483657681549e-06</v>
+        <v>1.952395854127985e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.70208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2239823.42272341</v>
+        <v>2367176.990280296</v>
       </c>
     </row>
     <row r="6">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1639.620345188799</v>
+        <v>1734.02229248042</v>
       </c>
       <c r="AB6" t="n">
-        <v>2243.400891231801</v>
+        <v>2372.56580023618</v>
       </c>
       <c r="AC6" t="n">
-        <v>2029.293858805563</v>
+        <v>2146.131450178653</v>
       </c>
       <c r="AD6" t="n">
-        <v>1639620.345188799</v>
+        <v>1734022.292480421</v>
       </c>
       <c r="AE6" t="n">
-        <v>2243400.891231801</v>
+        <v>2372565.80023618</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.409039163986554e-06</v>
+        <v>2.038559123270606e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.74166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2029293.858805563</v>
+        <v>2146131.450178653</v>
       </c>
     </row>
     <row r="7">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1518.328226361291</v>
+        <v>1612.55958145232</v>
       </c>
       <c r="AB7" t="n">
-        <v>2077.443663221378</v>
+        <v>2206.37516045091</v>
       </c>
       <c r="AC7" t="n">
-        <v>1879.175355714023</v>
+        <v>1995.801811804461</v>
       </c>
       <c r="AD7" t="n">
-        <v>1518328.226361291</v>
+        <v>1612559.58145232</v>
       </c>
       <c r="AE7" t="n">
-        <v>2077443.663221378</v>
+        <v>2206375.16045091</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.449331037387964e-06</v>
+        <v>2.096852297949812e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.1375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1879175.355714023</v>
+        <v>1995801.811804461</v>
       </c>
     </row>
     <row r="8">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1466.421262828655</v>
+        <v>1560.737869265704</v>
       </c>
       <c r="AB8" t="n">
-        <v>2006.422265742413</v>
+        <v>2135.470407624594</v>
       </c>
       <c r="AC8" t="n">
-        <v>1814.932140731292</v>
+        <v>1931.664109072444</v>
       </c>
       <c r="AD8" t="n">
-        <v>1466421.262828655</v>
+        <v>1560737.869265704</v>
       </c>
       <c r="AE8" t="n">
-        <v>2006422.265742413</v>
+        <v>2135470.407624594</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.462859695610336e-06</v>
+        <v>2.116425188718012e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.94166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1814932.140731292</v>
+        <v>1931664.109072444</v>
       </c>
     </row>
     <row r="9">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1467.0732890736</v>
+        <v>1561.38989551065</v>
       </c>
       <c r="AB9" t="n">
-        <v>2007.314396816115</v>
+        <v>2136.362538698296</v>
       </c>
       <c r="AC9" t="n">
-        <v>1815.739128067434</v>
+        <v>1932.471096408585</v>
       </c>
       <c r="AD9" t="n">
-        <v>1467073.2890736</v>
+        <v>1561389.89551065</v>
       </c>
       <c r="AE9" t="n">
-        <v>2007314.396816115</v>
+        <v>2136362.538698296</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.465947758900225e-06</v>
+        <v>2.120892913784667e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.89791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1815739.128067434</v>
+        <v>1932471.096408585</v>
       </c>
     </row>
   </sheetData>
@@ -10630,28 +10630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2849.697853493336</v>
+        <v>2987.156018257126</v>
       </c>
       <c r="AB2" t="n">
-        <v>3899.082322946244</v>
+        <v>4087.15864820231</v>
       </c>
       <c r="AC2" t="n">
-        <v>3526.959378440517</v>
+        <v>3697.085963180917</v>
       </c>
       <c r="AD2" t="n">
-        <v>2849697.853493336</v>
+        <v>2987156.018257126</v>
       </c>
       <c r="AE2" t="n">
-        <v>3899082.322946244</v>
+        <v>4087158.64820231</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.002561804858476e-06</v>
+        <v>1.505531636974944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.05833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3526959.378440517</v>
+        <v>3697085.963180917</v>
       </c>
     </row>
     <row r="3">
@@ -10736,28 +10736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1533.543030230466</v>
+        <v>1630.692741028853</v>
       </c>
       <c r="AB3" t="n">
-        <v>2098.261229104958</v>
+        <v>2231.185749362065</v>
       </c>
       <c r="AC3" t="n">
-        <v>1898.006122327311</v>
+        <v>2018.244512931815</v>
       </c>
       <c r="AD3" t="n">
-        <v>1533543.030230466</v>
+        <v>1630692.741028853</v>
       </c>
       <c r="AE3" t="n">
-        <v>2098261.229104958</v>
+        <v>2231185.749362065</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.396936719844855e-06</v>
+        <v>2.097758378971277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.725</v>
       </c>
       <c r="AH3" t="n">
-        <v>1898006.122327311</v>
+        <v>2018244.512931815</v>
       </c>
     </row>
     <row r="4">
@@ -10842,28 +10842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1256.037364159608</v>
+        <v>1353.016393248852</v>
       </c>
       <c r="AB4" t="n">
-        <v>1718.565734100867</v>
+        <v>1851.256720113579</v>
       </c>
       <c r="AC4" t="n">
-        <v>1554.548232460437</v>
+        <v>1674.575377001064</v>
       </c>
       <c r="AD4" t="n">
-        <v>1256037.364159608</v>
+        <v>1353016.393248852</v>
       </c>
       <c r="AE4" t="n">
-        <v>1718565.734100867</v>
+        <v>1851256.720113579</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.520864940407336e-06</v>
+        <v>2.283859481034667e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1554548.232460437</v>
+        <v>1674575.377001064</v>
       </c>
     </row>
     <row r="5">
@@ -10948,28 +10948,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1241.342874974043</v>
+        <v>1330.396776539231</v>
       </c>
       <c r="AB5" t="n">
-        <v>1698.460085722068</v>
+        <v>1820.307562624416</v>
       </c>
       <c r="AC5" t="n">
-        <v>1536.361438944455</v>
+        <v>1646.579963665251</v>
       </c>
       <c r="AD5" t="n">
-        <v>1241342.874974043</v>
+        <v>1330396.776539231</v>
       </c>
       <c r="AE5" t="n">
-        <v>1698460.085722068</v>
+        <v>1820307.562624416</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.530569204148428e-06</v>
+        <v>2.298432224585202e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.65416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1536361.438944455</v>
+        <v>1646579.963665251</v>
       </c>
     </row>
   </sheetData>
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1897.396715981688</v>
+        <v>2015.01366280773</v>
       </c>
       <c r="AB2" t="n">
-        <v>2596.101894041493</v>
+        <v>2757.030589582365</v>
       </c>
       <c r="AC2" t="n">
-        <v>2348.333572926065</v>
+        <v>2493.903459629359</v>
       </c>
       <c r="AD2" t="n">
-        <v>1897396.715981687</v>
+        <v>2015013.66280773</v>
       </c>
       <c r="AE2" t="n">
-        <v>2596101.894041494</v>
+        <v>2757030.589582365</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.214526553979918e-06</v>
+        <v>1.862776153597227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.425</v>
       </c>
       <c r="AH2" t="n">
-        <v>2348333.572926065</v>
+        <v>2493903.459629359</v>
       </c>
     </row>
     <row r="3">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1180.094260119363</v>
+        <v>1274.307223169757</v>
       </c>
       <c r="AB3" t="n">
-        <v>1614.657028779712</v>
+        <v>1743.563361207847</v>
       </c>
       <c r="AC3" t="n">
-        <v>1460.556428138348</v>
+        <v>1577.160121120717</v>
       </c>
       <c r="AD3" t="n">
-        <v>1180094.260119363</v>
+        <v>1274307.223169757</v>
       </c>
       <c r="AE3" t="n">
-        <v>1614657.028779712</v>
+        <v>1743563.361207847</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.531373978077285e-06</v>
+        <v>2.348739860198113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.54583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1460556.428138348</v>
+        <v>1577160.121120717</v>
       </c>
     </row>
     <row r="4">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1164.232716353918</v>
+        <v>1250.587576920782</v>
       </c>
       <c r="AB4" t="n">
-        <v>1592.954564837906</v>
+        <v>1711.109094773062</v>
       </c>
       <c r="AC4" t="n">
-        <v>1440.925216895549</v>
+        <v>1547.803244324618</v>
       </c>
       <c r="AD4" t="n">
-        <v>1164232.716353918</v>
+        <v>1250587.576920782</v>
       </c>
       <c r="AE4" t="n">
-        <v>1592954.564837906</v>
+        <v>1711109.094773062</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.543636901394861e-06</v>
+        <v>2.367548078968231e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.36666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1440925.216895549</v>
+        <v>1547803.244324618</v>
       </c>
     </row>
   </sheetData>
@@ -20527,28 +20527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1362.228620704804</v>
+        <v>1461.916001875992</v>
       </c>
       <c r="AB2" t="n">
-        <v>1863.861296133604</v>
+        <v>2000.257968948894</v>
       </c>
       <c r="AC2" t="n">
-        <v>1685.976989976371</v>
+        <v>1809.356155772102</v>
       </c>
       <c r="AD2" t="n">
-        <v>1362228.620704804</v>
+        <v>1461916.001875992</v>
       </c>
       <c r="AE2" t="n">
-        <v>1863861.296133604</v>
+        <v>2000257.968948894</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.395054403866549e-06</v>
+        <v>2.179744988083404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>1685976.989976371</v>
+        <v>1809356.155772102</v>
       </c>
     </row>
     <row r="3">
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1116.002388437343</v>
+        <v>1207.850917317847</v>
       </c>
       <c r="AB3" t="n">
-        <v>1526.96370241055</v>
+        <v>1652.63491169597</v>
       </c>
       <c r="AC3" t="n">
-        <v>1381.232429759503</v>
+        <v>1494.909755211373</v>
       </c>
       <c r="AD3" t="n">
-        <v>1116002.388437343</v>
+        <v>1207850.917317847</v>
       </c>
       <c r="AE3" t="n">
-        <v>1526963.70241055</v>
+        <v>1652634.91169597</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.535451252817975e-06</v>
+        <v>2.39911229519084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.26041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1381232.429759503</v>
+        <v>1494909.755211373</v>
       </c>
     </row>
   </sheetData>
@@ -20930,28 +20930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1076.095743992807</v>
+        <v>1178.094989366542</v>
       </c>
       <c r="AB2" t="n">
-        <v>1472.361670924638</v>
+        <v>1611.9215383341</v>
       </c>
       <c r="AC2" t="n">
-        <v>1331.841539524174</v>
+        <v>1458.082009061581</v>
       </c>
       <c r="AD2" t="n">
-        <v>1076095.743992807</v>
+        <v>1178094.989366542</v>
       </c>
       <c r="AE2" t="n">
-        <v>1472361.670924638</v>
+        <v>1611921.538334101</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.422986566080989e-06</v>
+        <v>2.319007244457888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1331841.539524174</v>
+        <v>1458082.009061581</v>
       </c>
     </row>
   </sheetData>
@@ -21227,28 +21227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4103.494210641314</v>
+        <v>4269.352782571166</v>
       </c>
       <c r="AB2" t="n">
-        <v>5614.581812387645</v>
+        <v>5841.516827665855</v>
       </c>
       <c r="AC2" t="n">
-        <v>5078.73400432822</v>
+        <v>5284.010660253565</v>
       </c>
       <c r="AD2" t="n">
-        <v>4103494.210641314</v>
+        <v>4269352.782571166</v>
       </c>
       <c r="AE2" t="n">
-        <v>5614581.812387645</v>
+        <v>5841516.827665855</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.318197867626472e-07</v>
+        <v>1.228914585989759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.5375</v>
       </c>
       <c r="AH2" t="n">
-        <v>5078734.00432822</v>
+        <v>5284010.660253565</v>
       </c>
     </row>
     <row r="3">
@@ -21333,28 +21333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1954.070800539811</v>
+        <v>2061.763751649095</v>
       </c>
       <c r="AB3" t="n">
-        <v>2673.645876818067</v>
+        <v>2820.996123603478</v>
       </c>
       <c r="AC3" t="n">
-        <v>2418.476866820106</v>
+        <v>2551.764212859687</v>
       </c>
       <c r="AD3" t="n">
-        <v>1954070.800539811</v>
+        <v>2061763.751649094</v>
       </c>
       <c r="AE3" t="n">
-        <v>2673645.876818067</v>
+        <v>2820996.123603478</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.262655044427355e-06</v>
+        <v>1.865422325681089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.3875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2418476.866820106</v>
+        <v>2551764.212859687</v>
       </c>
     </row>
     <row r="4">
@@ -21439,28 +21439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1545.576110446352</v>
+        <v>1645.057117262435</v>
       </c>
       <c r="AB4" t="n">
-        <v>2114.725420318366</v>
+        <v>2250.839722636405</v>
       </c>
       <c r="AC4" t="n">
-        <v>1912.898994238949</v>
+        <v>2036.022738581378</v>
       </c>
       <c r="AD4" t="n">
-        <v>1545576.110446353</v>
+        <v>1645057.117262435</v>
       </c>
       <c r="AE4" t="n">
-        <v>2114725.420318366</v>
+        <v>2250839.722636405</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.418371216126171e-06</v>
+        <v>2.095474408740955e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>1912898.994238949</v>
+        <v>2036022.738581378</v>
       </c>
     </row>
     <row r="5">
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1356.858271419531</v>
+        <v>1447.956831250372</v>
       </c>
       <c r="AB5" t="n">
-        <v>1856.513347318406</v>
+        <v>1981.158415863776</v>
       </c>
       <c r="AC5" t="n">
-        <v>1679.330319083185</v>
+        <v>1792.079437227037</v>
       </c>
       <c r="AD5" t="n">
-        <v>1356858.271419531</v>
+        <v>1447956.831250372</v>
       </c>
       <c r="AE5" t="n">
-        <v>1856513.347318406</v>
+        <v>1981158.415863776</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.493767386217495e-06</v>
+        <v>2.206863263186937e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.46041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1679330.319083184</v>
+        <v>1792079.437227037</v>
       </c>
     </row>
     <row r="6">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1325.711557465876</v>
+        <v>1416.810117296717</v>
       </c>
       <c r="AB6" t="n">
-        <v>1813.897039190974</v>
+        <v>1938.542107736345</v>
       </c>
       <c r="AC6" t="n">
-        <v>1640.781251591071</v>
+        <v>1753.530369734924</v>
       </c>
       <c r="AD6" t="n">
-        <v>1325711.557465876</v>
+        <v>1416810.117296717</v>
       </c>
       <c r="AE6" t="n">
-        <v>1813897.039190974</v>
+        <v>1938542.107736345</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.507154053152077e-06</v>
+        <v>2.226640467955918e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.27083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1640781.251591071</v>
+        <v>1753530.369734924</v>
       </c>
     </row>
     <row r="7">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1332.58303715512</v>
+        <v>1423.681596985961</v>
       </c>
       <c r="AB7" t="n">
-        <v>1823.298900850086</v>
+        <v>1947.943969395457</v>
       </c>
       <c r="AC7" t="n">
-        <v>1649.285812769033</v>
+        <v>1762.034930912886</v>
       </c>
       <c r="AD7" t="n">
-        <v>1332583.03715512</v>
+        <v>1423681.596985961</v>
       </c>
       <c r="AE7" t="n">
-        <v>1823298.900850086</v>
+        <v>1947943.969395457</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.507154053152077e-06</v>
+        <v>2.226640467955918e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.27083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1649285.812769033</v>
+        <v>1762034.930912886</v>
       </c>
     </row>
   </sheetData>
@@ -22054,28 +22054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6695.748768800974</v>
+        <v>6908.717406763477</v>
       </c>
       <c r="AB2" t="n">
-        <v>9161.41886106172</v>
+        <v>9452.811947035238</v>
       </c>
       <c r="AC2" t="n">
-        <v>8287.065903093773</v>
+        <v>8550.648841914732</v>
       </c>
       <c r="AD2" t="n">
-        <v>6695748.768800974</v>
+        <v>6908717.406763477</v>
       </c>
       <c r="AE2" t="n">
-        <v>9161418.86106172</v>
+        <v>9452811.947035238</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.406909728053438e-07</v>
+        <v>9.303915793010037e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.21666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8287065.903093774</v>
+        <v>8550648.841914732</v>
       </c>
     </row>
     <row r="3">
@@ -22160,28 +22160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2554.773395310296</v>
+        <v>2682.537456211752</v>
       </c>
       <c r="AB3" t="n">
-        <v>3495.55366811137</v>
+        <v>3670.366092789312</v>
       </c>
       <c r="AC3" t="n">
-        <v>3161.942932067075</v>
+        <v>3320.071504284526</v>
       </c>
       <c r="AD3" t="n">
-        <v>2554773.395310296</v>
+        <v>2682537.456211752</v>
       </c>
       <c r="AE3" t="n">
-        <v>3495553.66811137</v>
+        <v>3670366.092789312</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.112794665795905e-06</v>
+        <v>1.615965934425835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.75833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3161942.932067075</v>
+        <v>3320071.504284526</v>
       </c>
     </row>
     <row r="4">
@@ -22266,28 +22266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1978.005281830583</v>
+        <v>2080.267824573042</v>
       </c>
       <c r="AB4" t="n">
-        <v>2706.394090034893</v>
+        <v>2846.314212520105</v>
       </c>
       <c r="AC4" t="n">
-        <v>2448.099636529924</v>
+        <v>2574.665978904273</v>
       </c>
       <c r="AD4" t="n">
-        <v>1978005.281830583</v>
+        <v>2080267.824573042</v>
       </c>
       <c r="AE4" t="n">
-        <v>2706394.090034893</v>
+        <v>2846314.212520105</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.28538533747964e-06</v>
+        <v>1.866596760231521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2448099.636529924</v>
+        <v>2574665.978904273</v>
       </c>
     </row>
     <row r="5">
@@ -22372,28 +22372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1713.235571975073</v>
+        <v>1806.969131876825</v>
       </c>
       <c r="AB5" t="n">
-        <v>2344.124492195377</v>
+        <v>2472.374884085767</v>
       </c>
       <c r="AC5" t="n">
-        <v>2120.404540659637</v>
+        <v>2236.414895148564</v>
       </c>
       <c r="AD5" t="n">
-        <v>1713235.571975073</v>
+        <v>1806969.131876825</v>
       </c>
       <c r="AE5" t="n">
-        <v>2344124.492195377</v>
+        <v>2472374.884085767</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378649540648944e-06</v>
+        <v>2.002032146341294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.40625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2120404.540659637</v>
+        <v>2236414.895148565</v>
       </c>
     </row>
     <row r="6">
@@ -22478,28 +22478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1553.680607092283</v>
+        <v>1647.499418340056</v>
       </c>
       <c r="AB6" t="n">
-        <v>2125.814350174485</v>
+        <v>2254.181386717525</v>
       </c>
       <c r="AC6" t="n">
-        <v>1922.929612193011</v>
+        <v>2039.04547893265</v>
       </c>
       <c r="AD6" t="n">
-        <v>1553680.607092283</v>
+        <v>1647499.418340056</v>
       </c>
       <c r="AE6" t="n">
-        <v>2125814.350174485</v>
+        <v>2254181.386717525</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.435141848133053e-06</v>
+        <v>2.084068524891094e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.525</v>
       </c>
       <c r="AH6" t="n">
-        <v>1922929.612193011</v>
+        <v>2039045.47893265</v>
       </c>
     </row>
     <row r="7">
@@ -22584,28 +22584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1460.167205882875</v>
+        <v>1545.457123798492</v>
       </c>
       <c r="AB7" t="n">
-        <v>1997.865189119677</v>
+        <v>2114.562617537443</v>
       </c>
       <c r="AC7" t="n">
-        <v>1807.191739491498</v>
+        <v>1912.751729126942</v>
       </c>
       <c r="AD7" t="n">
-        <v>1460167.205882875</v>
+        <v>1545457.123798492</v>
       </c>
       <c r="AE7" t="n">
-        <v>1997865.189119677</v>
+        <v>2114562.617537443</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.466724161765902e-06</v>
+        <v>2.129931382190588e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.06041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1807191.739491498</v>
+        <v>1912751.729126942</v>
       </c>
     </row>
     <row r="8">
@@ -22690,28 +22690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1434.752257059846</v>
+        <v>1528.485727453048</v>
       </c>
       <c r="AB8" t="n">
-        <v>1963.0913349116</v>
+        <v>2091.341604332442</v>
       </c>
       <c r="AC8" t="n">
-        <v>1775.736653123629</v>
+        <v>1891.74689683133</v>
       </c>
       <c r="AD8" t="n">
-        <v>1434752.257059847</v>
+        <v>1528485.727453048</v>
       </c>
       <c r="AE8" t="n">
-        <v>1963091.3349116</v>
+        <v>2091341.604332442</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.474286124185034e-06</v>
+        <v>2.140912629713002e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.95208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1775736.653123629</v>
+        <v>1891746.89683133</v>
       </c>
     </row>
     <row r="9">
@@ -22796,28 +22796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1441.022138278585</v>
+        <v>1534.755608671787</v>
       </c>
       <c r="AB9" t="n">
-        <v>1971.670063002715</v>
+        <v>2099.920332423557</v>
       </c>
       <c r="AC9" t="n">
-        <v>1783.496639446049</v>
+        <v>1899.506883153749</v>
       </c>
       <c r="AD9" t="n">
-        <v>1441022.138278585</v>
+        <v>1534755.608671787</v>
       </c>
       <c r="AE9" t="n">
-        <v>1971670.063002715</v>
+        <v>2099920.332423557</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.47413785041211e-06</v>
+        <v>2.140697311134131e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.95416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1783496.639446049</v>
+        <v>1899506.883153749</v>
       </c>
     </row>
   </sheetData>
@@ -23093,28 +23093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1113.742884379637</v>
+        <v>1227.508167049243</v>
       </c>
       <c r="AB2" t="n">
-        <v>1523.872149276513</v>
+        <v>1679.530827995118</v>
       </c>
       <c r="AC2" t="n">
-        <v>1378.435930117556</v>
+        <v>1519.238763007585</v>
       </c>
       <c r="AD2" t="n">
-        <v>1113742.884379636</v>
+        <v>1227508.167049242</v>
       </c>
       <c r="AE2" t="n">
-        <v>1523872.149276513</v>
+        <v>1679530.827995118</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283363682946072e-06</v>
+        <v>2.139290797892592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1378435.930117556</v>
+        <v>1519238.763007585</v>
       </c>
     </row>
   </sheetData>
@@ -23390,28 +23390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2186.508918606713</v>
+        <v>2313.418892510625</v>
       </c>
       <c r="AB2" t="n">
-        <v>2991.677964403249</v>
+        <v>3165.321789571665</v>
       </c>
       <c r="AC2" t="n">
-        <v>2706.156418326996</v>
+        <v>2863.227920531859</v>
       </c>
       <c r="AD2" t="n">
-        <v>2186508.918606712</v>
+        <v>2313418.892510626</v>
       </c>
       <c r="AE2" t="n">
-        <v>2991677.964403248</v>
+        <v>3165321.789571665</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.137382721562148e-06</v>
+        <v>1.730990295377444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.91041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2706156.418326996</v>
+        <v>2863227.920531859</v>
       </c>
     </row>
     <row r="3">
@@ -23496,28 +23496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1271.326308783762</v>
+        <v>1366.551459638981</v>
       </c>
       <c r="AB3" t="n">
-        <v>1739.484742636268</v>
+        <v>1869.775995073539</v>
       </c>
       <c r="AC3" t="n">
-        <v>1573.470760181232</v>
+        <v>1691.327198350811</v>
       </c>
       <c r="AD3" t="n">
-        <v>1271326.308783762</v>
+        <v>1366551.459638981</v>
       </c>
       <c r="AE3" t="n">
-        <v>1739484.742636268</v>
+        <v>1869775.995073539</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.496152260581824e-06</v>
+        <v>2.277004032483581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.73958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1573470.760181231</v>
+        <v>1691327.198350811</v>
       </c>
     </row>
     <row r="4">
@@ -23602,28 +23602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1192.797445609699</v>
+        <v>1280.080144997653</v>
       </c>
       <c r="AB4" t="n">
-        <v>1632.03808759258</v>
+        <v>1751.462127536111</v>
       </c>
       <c r="AC4" t="n">
-        <v>1476.278663092586</v>
+        <v>1584.305040276599</v>
       </c>
       <c r="AD4" t="n">
-        <v>1192797.445609699</v>
+        <v>1280080.144997653</v>
       </c>
       <c r="AE4" t="n">
-        <v>1632038.08759258</v>
+        <v>1751462.127536111</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.540243191640227e-06</v>
+        <v>2.344106312419247e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.0875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1476278.663092586</v>
+        <v>1584305.040276599</v>
       </c>
     </row>
     <row r="5">
@@ -23708,28 +23708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1198.651258895601</v>
+        <v>1285.933958283556</v>
       </c>
       <c r="AB5" t="n">
-        <v>1640.047533182368</v>
+        <v>1759.471573125899</v>
       </c>
       <c r="AC5" t="n">
-        <v>1483.523698436612</v>
+        <v>1591.550075620625</v>
       </c>
       <c r="AD5" t="n">
-        <v>1198651.258895601</v>
+        <v>1285933.958283555</v>
       </c>
       <c r="AE5" t="n">
-        <v>1640047.533182368</v>
+        <v>1759471.573125899</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.541549589597513e-06</v>
+        <v>2.346094528121044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.06875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1483523.698436612</v>
+        <v>1591550.075620625</v>
       </c>
     </row>
   </sheetData>
@@ -24005,28 +24005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3221.712796412916</v>
+        <v>3368.619436312906</v>
       </c>
       <c r="AB2" t="n">
-        <v>4408.089579989814</v>
+        <v>4609.093725764533</v>
       </c>
       <c r="AC2" t="n">
-        <v>3987.387697268001</v>
+        <v>4169.208289481064</v>
       </c>
       <c r="AD2" t="n">
-        <v>3221712.796412916</v>
+        <v>3368619.436312906</v>
       </c>
       <c r="AE2" t="n">
-        <v>4408089.579989813</v>
+        <v>4609093.725764533</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.41763683843819e-07</v>
+        <v>1.405969074851381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.77708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3987387.697268001</v>
+        <v>4169208.289481064</v>
       </c>
     </row>
     <row r="3">
@@ -24111,28 +24111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1675.688171518348</v>
+        <v>1773.597574008702</v>
       </c>
       <c r="AB3" t="n">
-        <v>2292.750482416086</v>
+        <v>2426.714446361373</v>
       </c>
       <c r="AC3" t="n">
-        <v>2073.933594269807</v>
+        <v>2195.11222551576</v>
       </c>
       <c r="AD3" t="n">
-        <v>1675688.171518348</v>
+        <v>1773597.574008702</v>
       </c>
       <c r="AE3" t="n">
-        <v>2292750.482416085</v>
+        <v>2426714.446361373</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.348813129164628e-06</v>
+        <v>2.013657544766277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.28333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2073933.594269807</v>
+        <v>2195112.22551576</v>
       </c>
     </row>
     <row r="4">
@@ -24217,28 +24217,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1337.802686225564</v>
+        <v>1435.626658352796</v>
       </c>
       <c r="AB4" t="n">
-        <v>1830.440654982933</v>
+        <v>1964.287729336475</v>
       </c>
       <c r="AC4" t="n">
-        <v>1655.745967910956</v>
+        <v>1776.818865343744</v>
       </c>
       <c r="AD4" t="n">
-        <v>1337802.686225564</v>
+        <v>1435626.658352796</v>
       </c>
       <c r="AE4" t="n">
-        <v>1830440.654982933</v>
+        <v>1964287.729336475</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.490785183673972e-06</v>
+        <v>2.225609143195459e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.97083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1655745.967910956</v>
+        <v>1776818.865343744</v>
       </c>
     </row>
     <row r="5">
@@ -24323,28 +24323,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1268.974071950154</v>
+        <v>1358.802504633497</v>
       </c>
       <c r="AB5" t="n">
-        <v>1736.26630842716</v>
+        <v>1859.173532975269</v>
       </c>
       <c r="AC5" t="n">
-        <v>1570.559488815941</v>
+        <v>1681.736620354551</v>
       </c>
       <c r="AD5" t="n">
-        <v>1268974.071950154</v>
+        <v>1358802.504633497</v>
       </c>
       <c r="AE5" t="n">
-        <v>1736266.30842716</v>
+        <v>1859173.532975269</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522858604626249e-06</v>
+        <v>2.273491896328962e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.50833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1570559.488815941</v>
+        <v>1681736.620354551</v>
       </c>
     </row>
     <row r="6">
@@ -24429,28 +24429,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1276.444505448586</v>
+        <v>1366.272938131929</v>
       </c>
       <c r="AB6" t="n">
-        <v>1746.487685111981</v>
+        <v>1869.394909660089</v>
       </c>
       <c r="AC6" t="n">
-        <v>1579.805351655754</v>
+        <v>1690.982483194364</v>
       </c>
       <c r="AD6" t="n">
-        <v>1276444.505448586</v>
+        <v>1366272.938131929</v>
       </c>
       <c r="AE6" t="n">
-        <v>1746487.685111981</v>
+        <v>1869394.909660089</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.522701381974522e-06</v>
+        <v>2.273257176950856e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1579805.351655754</v>
+        <v>1690982.483194364</v>
       </c>
     </row>
   </sheetData>
